--- a/tests/testthat/Non_opioids_wide.xlsx
+++ b/tests/testthat/Non_opioids_wide.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\uol.le.ac.uk\root\staff\home\t\tm428\My Documents\Leicester Health Sciences\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{12B0FC70-5F5F-4769-AF72-4F6BDFD3B0DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{89C3BA0A-7925-4D5E-AE91-AA812A6B1809}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420"/>
   </bookViews>
@@ -28,19 +28,16 @@
     <t>T.1</t>
   </si>
   <si>
-    <t>N.1</t>
-  </si>
-  <si>
     <t>Mean.1</t>
   </si>
   <si>
     <t>SD.1</t>
   </si>
   <si>
-    <t>T.2</t>
+    <t>N.1</t>
   </si>
   <si>
-    <t>N.2</t>
+    <t>T.2</t>
   </si>
   <si>
     <t>Mean.2</t>
@@ -49,13 +46,16 @@
     <t>SD.2</t>
   </si>
   <si>
+    <t>N.2</t>
+  </si>
+  <si>
     <t>covar.age</t>
   </si>
   <si>
-    <t>Glucocorticoids</t>
+    <t>Placebo</t>
   </si>
   <si>
-    <t>Placebo</t>
+    <t>Glucocorticoids</t>
   </si>
   <si>
     <t>Ketamine</t>
@@ -948,25 +948,25 @@
         <v>10</v>
       </c>
       <c r="C2">
-        <v>62</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="D2">
-        <v>1.9</v>
+        <v>2.5</v>
       </c>
       <c r="E2">
-        <v>2.4</v>
+        <v>50</v>
       </c>
       <c r="F2" t="s">
         <v>11</v>
       </c>
       <c r="G2">
-        <v>50</v>
+        <v>1.9</v>
       </c>
       <c r="H2">
-        <v>2.2000000000000002</v>
+        <v>2.4</v>
       </c>
       <c r="I2">
-        <v>2.5</v>
+        <v>62</v>
       </c>
       <c r="J2">
         <v>45</v>
@@ -980,25 +980,25 @@
         <v>10</v>
       </c>
       <c r="C3">
-        <v>92</v>
+        <v>2</v>
       </c>
       <c r="D3">
-        <v>2</v>
+        <v>3.7</v>
       </c>
       <c r="E3">
-        <v>2.8</v>
+        <v>45</v>
       </c>
       <c r="F3" t="s">
         <v>11</v>
       </c>
       <c r="G3">
-        <v>45</v>
+        <v>2</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>2.8</v>
       </c>
       <c r="I3">
-        <v>3.7</v>
+        <v>92</v>
       </c>
       <c r="J3">
         <v>75.5</v>
@@ -1012,25 +1012,25 @@
         <v>10</v>
       </c>
       <c r="C4">
-        <v>78</v>
+        <v>1.4</v>
       </c>
       <c r="D4">
-        <v>1.4</v>
+        <v>1.6</v>
       </c>
       <c r="E4">
-        <v>1.7</v>
+        <v>88</v>
       </c>
       <c r="F4" t="s">
         <v>11</v>
       </c>
       <c r="G4">
-        <v>88</v>
+        <v>1.4</v>
       </c>
       <c r="H4">
-        <v>1.4</v>
+        <v>1.7</v>
       </c>
       <c r="I4">
-        <v>1.6</v>
+        <v>78</v>
       </c>
       <c r="J4">
         <v>71.3</v>
@@ -1044,25 +1044,25 @@
         <v>10</v>
       </c>
       <c r="C5">
-        <v>46</v>
+        <v>2.9</v>
       </c>
       <c r="D5">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="E5">
-        <v>2.4</v>
+        <v>47</v>
       </c>
       <c r="F5" t="s">
         <v>11</v>
       </c>
       <c r="G5">
-        <v>47</v>
+        <v>2.6</v>
       </c>
       <c r="H5">
-        <v>2.9</v>
+        <v>2.4</v>
       </c>
       <c r="I5">
-        <v>2.5</v>
+        <v>46</v>
       </c>
       <c r="J5">
         <v>54.5</v>
@@ -1073,28 +1073,28 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6">
+        <v>5.4</v>
+      </c>
+      <c r="D6">
+        <v>3.6</v>
+      </c>
+      <c r="E6">
+        <v>52</v>
+      </c>
+      <c r="F6" t="s">
         <v>12</v>
       </c>
-      <c r="C6">
+      <c r="G6">
+        <v>3</v>
+      </c>
+      <c r="H6">
+        <v>3.5</v>
+      </c>
+      <c r="I6">
         <v>43</v>
-      </c>
-      <c r="D6">
-        <v>3</v>
-      </c>
-      <c r="E6">
-        <v>3.5</v>
-      </c>
-      <c r="F6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G6">
-        <v>52</v>
-      </c>
-      <c r="H6">
-        <v>5.4</v>
-      </c>
-      <c r="I6">
-        <v>3.6</v>
       </c>
       <c r="J6">
         <v>56</v>
@@ -1105,28 +1105,28 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>1.5</v>
+      </c>
+      <c r="E7">
+        <v>84</v>
+      </c>
+      <c r="F7" t="s">
         <v>12</v>
       </c>
-      <c r="C7">
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7">
+        <v>1.5</v>
+      </c>
+      <c r="I7">
         <v>84</v>
-      </c>
-      <c r="D7">
-        <v>1</v>
-      </c>
-      <c r="E7">
-        <v>1.5</v>
-      </c>
-      <c r="F7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G7">
-        <v>84</v>
-      </c>
-      <c r="H7">
-        <v>1</v>
-      </c>
-      <c r="I7">
-        <v>1.5</v>
       </c>
       <c r="J7">
         <v>50.2</v>
@@ -1137,28 +1137,28 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0.2</v>
+      </c>
+      <c r="E8">
+        <v>34</v>
+      </c>
+      <c r="F8" t="s">
         <v>12</v>
       </c>
-      <c r="C8">
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0.7</v>
+      </c>
+      <c r="I8">
         <v>33</v>
-      </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-      <c r="E8">
-        <v>0.7</v>
-      </c>
-      <c r="F8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G8">
-        <v>34</v>
-      </c>
-      <c r="H8">
-        <v>0</v>
-      </c>
-      <c r="I8">
-        <v>0.2</v>
       </c>
       <c r="J8">
         <v>64.5</v>
@@ -1169,28 +1169,28 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0.1</v>
+      </c>
+      <c r="E9">
+        <v>35</v>
+      </c>
+      <c r="F9" t="s">
         <v>12</v>
       </c>
-      <c r="C9">
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0.3</v>
+      </c>
+      <c r="I9">
         <v>34</v>
-      </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-      <c r="E9">
-        <v>0.3</v>
-      </c>
-      <c r="F9" t="s">
-        <v>11</v>
-      </c>
-      <c r="G9">
-        <v>35</v>
-      </c>
-      <c r="H9">
-        <v>0</v>
-      </c>
-      <c r="I9">
-        <v>0.1</v>
       </c>
       <c r="J9">
         <v>60.2</v>
@@ -1201,28 +1201,28 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10">
+        <v>4</v>
+      </c>
+      <c r="D10">
+        <v>3.3</v>
+      </c>
+      <c r="E10">
+        <v>66</v>
+      </c>
+      <c r="F10" t="s">
         <v>12</v>
       </c>
-      <c r="C10">
+      <c r="G10">
+        <v>4</v>
+      </c>
+      <c r="H10">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="I10">
         <v>73</v>
-      </c>
-      <c r="D10">
-        <v>4</v>
-      </c>
-      <c r="E10">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="F10" t="s">
-        <v>11</v>
-      </c>
-      <c r="G10">
-        <v>66</v>
-      </c>
-      <c r="H10">
-        <v>4</v>
-      </c>
-      <c r="I10">
-        <v>3.3</v>
       </c>
       <c r="J10">
         <v>66.5</v>
@@ -1233,28 +1233,28 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11">
+        <v>0.3</v>
+      </c>
+      <c r="D11">
+        <v>0.7</v>
+      </c>
+      <c r="E11">
+        <v>19</v>
+      </c>
+      <c r="F11" t="s">
         <v>12</v>
       </c>
-      <c r="C11">
+      <c r="G11">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="H11">
+        <v>2.1</v>
+      </c>
+      <c r="I11">
         <v>18</v>
-      </c>
-      <c r="D11">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="E11">
-        <v>2.1</v>
-      </c>
-      <c r="F11" t="s">
-        <v>11</v>
-      </c>
-      <c r="G11">
-        <v>19</v>
-      </c>
-      <c r="H11">
-        <v>0.3</v>
-      </c>
-      <c r="I11">
-        <v>0.7</v>
       </c>
       <c r="J11">
         <v>60</v>
@@ -1265,28 +1265,28 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12">
+        <v>0.5</v>
+      </c>
+      <c r="D12">
+        <v>3.7</v>
+      </c>
+      <c r="E12">
+        <v>6</v>
+      </c>
+      <c r="F12" t="s">
         <v>12</v>
       </c>
-      <c r="C12">
+      <c r="G12">
+        <v>2</v>
+      </c>
+      <c r="H12">
+        <v>1.7</v>
+      </c>
+      <c r="I12">
         <v>8</v>
-      </c>
-      <c r="D12">
-        <v>2</v>
-      </c>
-      <c r="E12">
-        <v>1.7</v>
-      </c>
-      <c r="F12" t="s">
-        <v>11</v>
-      </c>
-      <c r="G12">
-        <v>6</v>
-      </c>
-      <c r="H12">
-        <v>0.5</v>
-      </c>
-      <c r="I12">
-        <v>3.7</v>
       </c>
       <c r="J12">
         <v>55.3</v>
@@ -1297,28 +1297,28 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13">
+        <v>1.3</v>
+      </c>
+      <c r="D13">
+        <v>1.5</v>
+      </c>
+      <c r="E13">
+        <v>47</v>
+      </c>
+      <c r="F13" t="s">
         <v>12</v>
       </c>
-      <c r="C13">
+      <c r="G13">
+        <v>1.4</v>
+      </c>
+      <c r="H13">
+        <v>1.4</v>
+      </c>
+      <c r="I13">
         <v>31</v>
-      </c>
-      <c r="D13">
-        <v>1.4</v>
-      </c>
-      <c r="E13">
-        <v>1.4</v>
-      </c>
-      <c r="F13" t="s">
-        <v>11</v>
-      </c>
-      <c r="G13">
-        <v>47</v>
-      </c>
-      <c r="H13">
-        <v>1.3</v>
-      </c>
-      <c r="I13">
-        <v>1.5</v>
       </c>
       <c r="J13">
         <v>49.5</v>
@@ -1329,28 +1329,28 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>1.9</v>
+      </c>
+      <c r="E14">
+        <v>24</v>
+      </c>
+      <c r="F14" t="s">
         <v>12</v>
       </c>
-      <c r="C14">
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>0.7</v>
+      </c>
+      <c r="I14">
         <v>25</v>
-      </c>
-      <c r="D14">
-        <v>0</v>
-      </c>
-      <c r="E14">
-        <v>0.7</v>
-      </c>
-      <c r="F14" t="s">
-        <v>11</v>
-      </c>
-      <c r="G14">
-        <v>24</v>
-      </c>
-      <c r="H14">
-        <v>0</v>
-      </c>
-      <c r="I14">
-        <v>1.9</v>
       </c>
       <c r="J14">
         <v>38.5</v>
@@ -1361,28 +1361,28 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15">
+        <v>1.5</v>
+      </c>
+      <c r="D15">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="E15">
+        <v>17</v>
+      </c>
+      <c r="F15" t="s">
         <v>12</v>
       </c>
-      <c r="C15">
+      <c r="G15">
+        <v>0.3</v>
+      </c>
+      <c r="H15">
+        <v>3</v>
+      </c>
+      <c r="I15">
         <v>15</v>
-      </c>
-      <c r="D15">
-        <v>0.3</v>
-      </c>
-      <c r="E15">
-        <v>3</v>
-      </c>
-      <c r="F15" t="s">
-        <v>11</v>
-      </c>
-      <c r="G15">
-        <v>17</v>
-      </c>
-      <c r="H15">
-        <v>1.5</v>
-      </c>
-      <c r="I15">
-        <v>4.4000000000000004</v>
       </c>
       <c r="J15">
         <v>68.8</v>
@@ -1393,28 +1393,28 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16">
+        <v>1.7</v>
+      </c>
+      <c r="E16">
+        <v>35</v>
+      </c>
+      <c r="F16" t="s">
         <v>12</v>
       </c>
-      <c r="C16">
+      <c r="G16">
+        <v>0.7</v>
+      </c>
+      <c r="H16">
+        <v>1.4</v>
+      </c>
+      <c r="I16">
         <v>33</v>
-      </c>
-      <c r="D16">
-        <v>0.7</v>
-      </c>
-      <c r="E16">
-        <v>1.4</v>
-      </c>
-      <c r="F16" t="s">
-        <v>11</v>
-      </c>
-      <c r="G16">
-        <v>35</v>
-      </c>
-      <c r="H16">
-        <v>1</v>
-      </c>
-      <c r="I16">
-        <v>1.7</v>
       </c>
       <c r="J16">
         <v>64.8</v>
@@ -1425,28 +1425,28 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
+        <v>10</v>
+      </c>
+      <c r="C17">
+        <v>4</v>
+      </c>
+      <c r="D17">
+        <v>2.1</v>
+      </c>
+      <c r="E17">
+        <v>42</v>
+      </c>
+      <c r="F17" t="s">
         <v>12</v>
       </c>
-      <c r="C17">
+      <c r="G17">
+        <v>4.3</v>
+      </c>
+      <c r="H17">
+        <v>2.5</v>
+      </c>
+      <c r="I17">
         <v>49</v>
-      </c>
-      <c r="D17">
-        <v>4.3</v>
-      </c>
-      <c r="E17">
-        <v>2.5</v>
-      </c>
-      <c r="F17" t="s">
-        <v>11</v>
-      </c>
-      <c r="G17">
-        <v>42</v>
-      </c>
-      <c r="H17">
-        <v>4</v>
-      </c>
-      <c r="I17">
-        <v>2.1</v>
       </c>
       <c r="J17">
         <v>47.6</v>
@@ -1457,28 +1457,28 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
+        <v>10</v>
+      </c>
+      <c r="C18">
+        <v>2</v>
+      </c>
+      <c r="D18">
+        <v>1.5</v>
+      </c>
+      <c r="E18">
+        <v>62</v>
+      </c>
+      <c r="F18" t="s">
         <v>12</v>
       </c>
-      <c r="C18">
+      <c r="G18">
+        <v>2</v>
+      </c>
+      <c r="H18">
+        <v>1.5</v>
+      </c>
+      <c r="I18">
         <v>118</v>
-      </c>
-      <c r="D18">
-        <v>2</v>
-      </c>
-      <c r="E18">
-        <v>1.5</v>
-      </c>
-      <c r="F18" t="s">
-        <v>11</v>
-      </c>
-      <c r="G18">
-        <v>62</v>
-      </c>
-      <c r="H18">
-        <v>2</v>
-      </c>
-      <c r="I18">
-        <v>1.5</v>
       </c>
       <c r="J18">
         <v>57</v>
@@ -1489,28 +1489,28 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
+        <v>10</v>
+      </c>
+      <c r="C19">
+        <v>1.5</v>
+      </c>
+      <c r="D19">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="E19">
+        <v>22</v>
+      </c>
+      <c r="F19" t="s">
         <v>12</v>
       </c>
-      <c r="C19">
-        <v>22</v>
-      </c>
-      <c r="D19">
+      <c r="G19">
         <v>0</v>
-      </c>
-      <c r="E19">
-        <v>1.5</v>
-      </c>
-      <c r="F19" t="s">
-        <v>11</v>
-      </c>
-      <c r="G19">
-        <v>22</v>
       </c>
       <c r="H19">
         <v>1.5</v>
       </c>
       <c r="I19">
-        <v>2.2000000000000002</v>
+        <v>22</v>
       </c>
       <c r="J19">
         <v>66</v>
@@ -1521,28 +1521,28 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
+        <v>10</v>
+      </c>
+      <c r="C20">
+        <v>3.4</v>
+      </c>
+      <c r="D20">
+        <v>3</v>
+      </c>
+      <c r="E20">
+        <v>7</v>
+      </c>
+      <c r="F20" t="s">
         <v>12</v>
       </c>
-      <c r="C20">
+      <c r="G20">
+        <v>2.4</v>
+      </c>
+      <c r="H20">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="I20">
         <v>8</v>
-      </c>
-      <c r="D20">
-        <v>2.4</v>
-      </c>
-      <c r="E20">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="F20" t="s">
-        <v>11</v>
-      </c>
-      <c r="G20">
-        <v>7</v>
-      </c>
-      <c r="H20">
-        <v>3.4</v>
-      </c>
-      <c r="I20">
-        <v>3</v>
       </c>
       <c r="J20">
         <v>61.7</v>
@@ -1553,28 +1553,28 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
+        <v>10</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21">
+        <v>1.8</v>
+      </c>
+      <c r="E21">
+        <v>25</v>
+      </c>
+      <c r="F21" t="s">
         <v>12</v>
       </c>
-      <c r="C21">
+      <c r="G21">
+        <v>0.5</v>
+      </c>
+      <c r="H21">
+        <v>1.7</v>
+      </c>
+      <c r="I21">
         <v>55</v>
-      </c>
-      <c r="D21">
-        <v>0.5</v>
-      </c>
-      <c r="E21">
-        <v>1.7</v>
-      </c>
-      <c r="F21" t="s">
-        <v>11</v>
-      </c>
-      <c r="G21">
-        <v>25</v>
-      </c>
-      <c r="H21">
-        <v>1</v>
-      </c>
-      <c r="I21">
-        <v>1.8</v>
       </c>
       <c r="J21">
         <v>52.5</v>
@@ -1585,28 +1585,28 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
+        <v>10</v>
+      </c>
+      <c r="C22">
+        <v>0.1</v>
+      </c>
+      <c r="D22">
+        <v>0.7</v>
+      </c>
+      <c r="E22">
+        <v>38</v>
+      </c>
+      <c r="F22" t="s">
         <v>12</v>
       </c>
-      <c r="C22">
+      <c r="G22">
+        <v>0.2</v>
+      </c>
+      <c r="H22">
+        <v>0.7</v>
+      </c>
+      <c r="I22">
         <v>39</v>
-      </c>
-      <c r="D22">
-        <v>0.2</v>
-      </c>
-      <c r="E22">
-        <v>0.7</v>
-      </c>
-      <c r="F22" t="s">
-        <v>11</v>
-      </c>
-      <c r="G22">
-        <v>38</v>
-      </c>
-      <c r="H22">
-        <v>0.1</v>
-      </c>
-      <c r="I22">
-        <v>0.7</v>
       </c>
       <c r="J22">
         <v>48.3</v>
@@ -1617,28 +1617,28 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
+        <v>10</v>
+      </c>
+      <c r="C23">
+        <v>0.8</v>
+      </c>
+      <c r="D23">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="E23">
+        <v>30</v>
+      </c>
+      <c r="F23" t="s">
         <v>12</v>
       </c>
-      <c r="C23">
+      <c r="G23">
+        <v>0.8</v>
+      </c>
+      <c r="H23">
+        <v>0.9</v>
+      </c>
+      <c r="I23">
         <v>31</v>
-      </c>
-      <c r="D23">
-        <v>0.8</v>
-      </c>
-      <c r="E23">
-        <v>0.9</v>
-      </c>
-      <c r="F23" t="s">
-        <v>11</v>
-      </c>
-      <c r="G23">
-        <v>30</v>
-      </c>
-      <c r="H23">
-        <v>0.8</v>
-      </c>
-      <c r="I23">
-        <v>1.1000000000000001</v>
       </c>
       <c r="J23">
         <v>63.8</v>
@@ -1649,28 +1649,28 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
+        <v>10</v>
+      </c>
+      <c r="C24">
+        <v>3.4</v>
+      </c>
+      <c r="D24">
+        <v>1.6</v>
+      </c>
+      <c r="E24">
+        <v>10</v>
+      </c>
+      <c r="F24" t="s">
         <v>13</v>
       </c>
-      <c r="C24">
+      <c r="G24">
+        <v>3.1</v>
+      </c>
+      <c r="H24">
+        <v>1.7</v>
+      </c>
+      <c r="I24">
         <v>21</v>
-      </c>
-      <c r="D24">
-        <v>3.1</v>
-      </c>
-      <c r="E24">
-        <v>1.7</v>
-      </c>
-      <c r="F24" t="s">
-        <v>11</v>
-      </c>
-      <c r="G24">
-        <v>10</v>
-      </c>
-      <c r="H24">
-        <v>3.4</v>
-      </c>
-      <c r="I24">
-        <v>1.6</v>
       </c>
       <c r="J24">
         <v>60.2</v>
@@ -1681,28 +1681,28 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="D25">
+        <v>0.7</v>
+      </c>
+      <c r="E25">
+        <v>53</v>
+      </c>
+      <c r="F25" t="s">
         <v>13</v>
       </c>
-      <c r="C25">
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <v>0.7</v>
+      </c>
+      <c r="I25">
         <v>65</v>
-      </c>
-      <c r="D25">
-        <v>0</v>
-      </c>
-      <c r="E25">
-        <v>0.7</v>
-      </c>
-      <c r="F25" t="s">
-        <v>11</v>
-      </c>
-      <c r="G25">
-        <v>53</v>
-      </c>
-      <c r="H25">
-        <v>0</v>
-      </c>
-      <c r="I25">
-        <v>0.7</v>
       </c>
       <c r="J25">
         <v>60.2</v>
@@ -1713,28 +1713,28 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
+        <v>10</v>
+      </c>
+      <c r="C26">
+        <v>0.6</v>
+      </c>
+      <c r="D26">
+        <v>0.9</v>
+      </c>
+      <c r="E26">
+        <v>20</v>
+      </c>
+      <c r="F26" t="s">
         <v>13</v>
       </c>
-      <c r="C26">
+      <c r="G26">
+        <v>0.2</v>
+      </c>
+      <c r="H26">
+        <v>0.4</v>
+      </c>
+      <c r="I26">
         <v>20</v>
-      </c>
-      <c r="D26">
-        <v>0.2</v>
-      </c>
-      <c r="E26">
-        <v>0.4</v>
-      </c>
-      <c r="F26" t="s">
-        <v>11</v>
-      </c>
-      <c r="G26">
-        <v>20</v>
-      </c>
-      <c r="H26">
-        <v>0.6</v>
-      </c>
-      <c r="I26">
-        <v>0.9</v>
       </c>
       <c r="J26">
         <v>60.1</v>
@@ -1745,28 +1745,28 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
+        <v>10</v>
+      </c>
+      <c r="C27">
+        <v>0.6</v>
+      </c>
+      <c r="D27">
+        <v>0.1</v>
+      </c>
+      <c r="E27">
+        <v>35</v>
+      </c>
+      <c r="F27" t="s">
         <v>13</v>
       </c>
-      <c r="C27">
+      <c r="G27">
+        <v>0.5</v>
+      </c>
+      <c r="H27">
+        <v>0.9</v>
+      </c>
+      <c r="I27">
         <v>27</v>
-      </c>
-      <c r="D27">
-        <v>0.5</v>
-      </c>
-      <c r="E27">
-        <v>0.9</v>
-      </c>
-      <c r="F27" t="s">
-        <v>11</v>
-      </c>
-      <c r="G27">
-        <v>35</v>
-      </c>
-      <c r="H27">
-        <v>0.6</v>
-      </c>
-      <c r="I27">
-        <v>0.1</v>
       </c>
       <c r="J27">
         <v>41.5</v>
@@ -1777,28 +1777,28 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
+        <v>10</v>
+      </c>
+      <c r="C28">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="D28">
+        <v>1.4</v>
+      </c>
+      <c r="E28">
+        <v>22</v>
+      </c>
+      <c r="F28" t="s">
         <v>13</v>
       </c>
-      <c r="C28">
+      <c r="G28">
+        <v>2.6</v>
+      </c>
+      <c r="H28">
+        <v>1.7</v>
+      </c>
+      <c r="I28">
         <v>23</v>
-      </c>
-      <c r="D28">
-        <v>2.6</v>
-      </c>
-      <c r="E28">
-        <v>1.7</v>
-      </c>
-      <c r="F28" t="s">
-        <v>11</v>
-      </c>
-      <c r="G28">
-        <v>22</v>
-      </c>
-      <c r="H28">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="I28">
-        <v>1.4</v>
       </c>
       <c r="J28">
         <v>65</v>
@@ -1809,28 +1809,28 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
+        <v>10</v>
+      </c>
+      <c r="C29">
+        <v>2.5</v>
+      </c>
+      <c r="D29">
+        <v>1</v>
+      </c>
+      <c r="E29">
+        <v>4</v>
+      </c>
+      <c r="F29" t="s">
         <v>13</v>
       </c>
-      <c r="C29">
+      <c r="G29">
+        <v>3</v>
+      </c>
+      <c r="H29">
+        <v>0.8</v>
+      </c>
+      <c r="I29">
         <v>2</v>
-      </c>
-      <c r="D29">
-        <v>3</v>
-      </c>
-      <c r="E29">
-        <v>0.8</v>
-      </c>
-      <c r="F29" t="s">
-        <v>11</v>
-      </c>
-      <c r="G29">
-        <v>4</v>
-      </c>
-      <c r="H29">
-        <v>2.5</v>
-      </c>
-      <c r="I29">
-        <v>1</v>
       </c>
       <c r="J29">
         <v>34.5</v>
@@ -1841,28 +1841,28 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
+        <v>10</v>
+      </c>
+      <c r="C30">
+        <v>1.2</v>
+      </c>
+      <c r="D30">
+        <v>1.5</v>
+      </c>
+      <c r="E30">
+        <v>30</v>
+      </c>
+      <c r="F30" t="s">
         <v>13</v>
       </c>
-      <c r="C30">
+      <c r="G30">
+        <v>0.5</v>
+      </c>
+      <c r="H30">
+        <v>0.9</v>
+      </c>
+      <c r="I30">
         <v>60</v>
-      </c>
-      <c r="D30">
-        <v>0.5</v>
-      </c>
-      <c r="E30">
-        <v>0.9</v>
-      </c>
-      <c r="F30" t="s">
-        <v>11</v>
-      </c>
-      <c r="G30">
-        <v>30</v>
-      </c>
-      <c r="H30">
-        <v>1.2</v>
-      </c>
-      <c r="I30">
-        <v>1.5</v>
       </c>
       <c r="J30">
         <v>47.7</v>
@@ -1873,28 +1873,28 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
+        <v>10</v>
+      </c>
+      <c r="C31">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="D31">
+        <v>0.9</v>
+      </c>
+      <c r="E31">
+        <v>50</v>
+      </c>
+      <c r="F31" t="s">
         <v>13</v>
       </c>
-      <c r="C31">
+      <c r="G31">
+        <v>2.1</v>
+      </c>
+      <c r="H31">
+        <v>1.2</v>
+      </c>
+      <c r="I31">
         <v>50</v>
-      </c>
-      <c r="D31">
-        <v>2.1</v>
-      </c>
-      <c r="E31">
-        <v>1.2</v>
-      </c>
-      <c r="F31" t="s">
-        <v>11</v>
-      </c>
-      <c r="G31">
-        <v>50</v>
-      </c>
-      <c r="H31">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="I31">
-        <v>0.9</v>
       </c>
       <c r="J31">
         <v>43.5</v>
@@ -1905,28 +1905,28 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C32">
-        <v>20</v>
+        <v>0.2</v>
       </c>
       <c r="D32">
         <v>0.1</v>
       </c>
       <c r="E32">
+        <v>20</v>
+      </c>
+      <c r="F32" t="s">
+        <v>13</v>
+      </c>
+      <c r="G32">
         <v>0.1</v>
       </c>
-      <c r="F32" t="s">
-        <v>11</v>
-      </c>
-      <c r="G32">
+      <c r="H32">
+        <v>0.1</v>
+      </c>
+      <c r="I32">
         <v>20</v>
-      </c>
-      <c r="H32">
-        <v>0.2</v>
-      </c>
-      <c r="I32">
-        <v>0.1</v>
       </c>
       <c r="J32">
         <v>56.9</v>
@@ -1937,28 +1937,28 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
+        <v>10</v>
+      </c>
+      <c r="C33">
+        <v>2</v>
+      </c>
+      <c r="D33">
+        <v>1.5</v>
+      </c>
+      <c r="E33">
+        <v>29</v>
+      </c>
+      <c r="F33" t="s">
         <v>13</v>
       </c>
-      <c r="C33">
+      <c r="G33">
+        <v>1</v>
+      </c>
+      <c r="H33">
+        <v>0.6</v>
+      </c>
+      <c r="I33">
         <v>30</v>
-      </c>
-      <c r="D33">
-        <v>1</v>
-      </c>
-      <c r="E33">
-        <v>0.6</v>
-      </c>
-      <c r="F33" t="s">
-        <v>11</v>
-      </c>
-      <c r="G33">
-        <v>29</v>
-      </c>
-      <c r="H33">
-        <v>2</v>
-      </c>
-      <c r="I33">
-        <v>1.5</v>
       </c>
       <c r="J33">
         <v>24</v>
@@ -1969,28 +1969,28 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
+        <v>10</v>
+      </c>
+      <c r="C34">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="D34">
+        <v>1.5</v>
+      </c>
+      <c r="E34">
+        <v>24</v>
+      </c>
+      <c r="F34" t="s">
         <v>13</v>
       </c>
-      <c r="C34">
+      <c r="G34">
+        <v>0.9</v>
+      </c>
+      <c r="H34">
+        <v>1.2</v>
+      </c>
+      <c r="I34">
         <v>17</v>
-      </c>
-      <c r="D34">
-        <v>0.9</v>
-      </c>
-      <c r="E34">
-        <v>1.2</v>
-      </c>
-      <c r="F34" t="s">
-        <v>11</v>
-      </c>
-      <c r="G34">
-        <v>24</v>
-      </c>
-      <c r="H34">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="I34">
-        <v>1.5</v>
       </c>
       <c r="J34">
         <v>40</v>
@@ -2001,28 +2001,28 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
+        <v>10</v>
+      </c>
+      <c r="C35">
+        <v>3</v>
+      </c>
+      <c r="D35">
+        <v>1.9</v>
+      </c>
+      <c r="E35">
+        <v>49</v>
+      </c>
+      <c r="F35" t="s">
         <v>13</v>
       </c>
-      <c r="C35">
+      <c r="G35">
+        <v>2</v>
+      </c>
+      <c r="H35">
+        <v>1.5</v>
+      </c>
+      <c r="I35">
         <v>50</v>
-      </c>
-      <c r="D35">
-        <v>2</v>
-      </c>
-      <c r="E35">
-        <v>1.5</v>
-      </c>
-      <c r="F35" t="s">
-        <v>11</v>
-      </c>
-      <c r="G35">
-        <v>49</v>
-      </c>
-      <c r="H35">
-        <v>3</v>
-      </c>
-      <c r="I35">
-        <v>1.9</v>
       </c>
       <c r="J35">
         <v>62.4</v>
@@ -2033,28 +2033,28 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
+        <v>10</v>
+      </c>
+      <c r="C36">
+        <v>2</v>
+      </c>
+      <c r="D36">
+        <v>2.5</v>
+      </c>
+      <c r="E36">
+        <v>28</v>
+      </c>
+      <c r="F36" t="s">
         <v>13</v>
       </c>
-      <c r="C36">
-        <v>83</v>
-      </c>
-      <c r="D36">
+      <c r="G36">
         <v>1.8</v>
-      </c>
-      <c r="E36">
-        <v>2</v>
-      </c>
-      <c r="F36" t="s">
-        <v>11</v>
-      </c>
-      <c r="G36">
-        <v>28</v>
       </c>
       <c r="H36">
         <v>2</v>
       </c>
       <c r="I36">
-        <v>2.5</v>
+        <v>83</v>
       </c>
       <c r="J36">
         <v>66.5</v>
@@ -2065,28 +2065,28 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
+        <v>10</v>
+      </c>
+      <c r="C37">
+        <v>3.4</v>
+      </c>
+      <c r="D37">
+        <v>1.4</v>
+      </c>
+      <c r="E37">
+        <v>100</v>
+      </c>
+      <c r="F37" t="s">
         <v>13</v>
       </c>
-      <c r="C37">
+      <c r="G37">
+        <v>2.5</v>
+      </c>
+      <c r="H37">
+        <v>1.2</v>
+      </c>
+      <c r="I37">
         <v>100</v>
-      </c>
-      <c r="D37">
-        <v>2.5</v>
-      </c>
-      <c r="E37">
-        <v>1.2</v>
-      </c>
-      <c r="F37" t="s">
-        <v>11</v>
-      </c>
-      <c r="G37">
-        <v>100</v>
-      </c>
-      <c r="H37">
-        <v>3.4</v>
-      </c>
-      <c r="I37">
-        <v>1.4</v>
       </c>
       <c r="J37">
         <v>50.9</v>
@@ -2097,28 +2097,28 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
+        <v>10</v>
+      </c>
+      <c r="C38">
+        <v>1.9</v>
+      </c>
+      <c r="D38">
+        <v>2</v>
+      </c>
+      <c r="E38">
+        <v>24</v>
+      </c>
+      <c r="F38" t="s">
         <v>13</v>
       </c>
-      <c r="C38">
-        <v>22</v>
-      </c>
-      <c r="D38">
+      <c r="G38">
         <v>1.5</v>
-      </c>
-      <c r="E38">
-        <v>1.9</v>
-      </c>
-      <c r="F38" t="s">
-        <v>11</v>
-      </c>
-      <c r="G38">
-        <v>24</v>
       </c>
       <c r="H38">
         <v>1.9</v>
       </c>
       <c r="I38">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="J38">
         <v>43.5</v>
@@ -2129,28 +2129,28 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
+        <v>10</v>
+      </c>
+      <c r="C39">
+        <v>0</v>
+      </c>
+      <c r="D39">
+        <v>0.7</v>
+      </c>
+      <c r="E39">
+        <v>48</v>
+      </c>
+      <c r="F39" t="s">
         <v>13</v>
       </c>
-      <c r="C39">
+      <c r="G39">
+        <v>0</v>
+      </c>
+      <c r="H39">
+        <v>2.1</v>
+      </c>
+      <c r="I39">
         <v>52</v>
-      </c>
-      <c r="D39">
-        <v>0</v>
-      </c>
-      <c r="E39">
-        <v>2.1</v>
-      </c>
-      <c r="F39" t="s">
-        <v>11</v>
-      </c>
-      <c r="G39">
-        <v>48</v>
-      </c>
-      <c r="H39">
-        <v>0</v>
-      </c>
-      <c r="I39">
-        <v>0.7</v>
       </c>
       <c r="J39">
         <v>50.5</v>
@@ -2161,28 +2161,28 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
+        <v>10</v>
+      </c>
+      <c r="C40">
+        <v>3</v>
+      </c>
+      <c r="D40">
+        <v>0.8</v>
+      </c>
+      <c r="E40">
+        <v>31</v>
+      </c>
+      <c r="F40" t="s">
         <v>13</v>
       </c>
-      <c r="C40">
+      <c r="G40">
+        <v>2</v>
+      </c>
+      <c r="H40">
+        <v>0.5</v>
+      </c>
+      <c r="I40">
         <v>62</v>
-      </c>
-      <c r="D40">
-        <v>2</v>
-      </c>
-      <c r="E40">
-        <v>0.5</v>
-      </c>
-      <c r="F40" t="s">
-        <v>11</v>
-      </c>
-      <c r="G40">
-        <v>31</v>
-      </c>
-      <c r="H40">
-        <v>3</v>
-      </c>
-      <c r="I40">
-        <v>0.8</v>
       </c>
       <c r="J40">
         <v>67.099999999999994</v>
@@ -2193,28 +2193,28 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
+        <v>10</v>
+      </c>
+      <c r="C41">
+        <v>1.5</v>
+      </c>
+      <c r="D41">
+        <v>2</v>
+      </c>
+      <c r="E41">
+        <v>20</v>
+      </c>
+      <c r="F41" t="s">
         <v>13</v>
       </c>
-      <c r="C41">
+      <c r="G41">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="H41">
+        <v>1.6</v>
+      </c>
+      <c r="I41">
         <v>18</v>
-      </c>
-      <c r="D41">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="E41">
-        <v>1.6</v>
-      </c>
-      <c r="F41" t="s">
-        <v>11</v>
-      </c>
-      <c r="G41">
-        <v>20</v>
-      </c>
-      <c r="H41">
-        <v>1.5</v>
-      </c>
-      <c r="I41">
-        <v>2</v>
       </c>
       <c r="J41">
         <v>39.1</v>
@@ -2225,28 +2225,28 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
+        <v>10</v>
+      </c>
+      <c r="C42">
+        <v>0.5</v>
+      </c>
+      <c r="D42">
+        <v>1.5</v>
+      </c>
+      <c r="E42">
+        <v>18</v>
+      </c>
+      <c r="F42" t="s">
         <v>13</v>
       </c>
-      <c r="C42">
+      <c r="G42">
+        <v>1</v>
+      </c>
+      <c r="H42">
+        <v>1.5</v>
+      </c>
+      <c r="I42">
         <v>16</v>
-      </c>
-      <c r="D42">
-        <v>1</v>
-      </c>
-      <c r="E42">
-        <v>1.5</v>
-      </c>
-      <c r="F42" t="s">
-        <v>11</v>
-      </c>
-      <c r="G42">
-        <v>18</v>
-      </c>
-      <c r="H42">
-        <v>0.5</v>
-      </c>
-      <c r="I42">
-        <v>1.5</v>
       </c>
       <c r="J42">
         <v>70.3</v>
@@ -2257,28 +2257,28 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
+        <v>10</v>
+      </c>
+      <c r="C43">
+        <v>0</v>
+      </c>
+      <c r="D43">
+        <v>0.7</v>
+      </c>
+      <c r="E43">
+        <v>46</v>
+      </c>
+      <c r="F43" t="s">
         <v>13</v>
       </c>
-      <c r="C43">
+      <c r="G43">
+        <v>0</v>
+      </c>
+      <c r="H43">
+        <v>0.7</v>
+      </c>
+      <c r="I43">
         <v>46</v>
-      </c>
-      <c r="D43">
-        <v>0</v>
-      </c>
-      <c r="E43">
-        <v>0.7</v>
-      </c>
-      <c r="F43" t="s">
-        <v>11</v>
-      </c>
-      <c r="G43">
-        <v>46</v>
-      </c>
-      <c r="H43">
-        <v>0</v>
-      </c>
-      <c r="I43">
-        <v>0.7</v>
       </c>
       <c r="J43">
         <v>68.5</v>
@@ -2289,28 +2289,28 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
+        <v>10</v>
+      </c>
+      <c r="C44">
+        <v>1.5</v>
+      </c>
+      <c r="D44">
+        <v>2.8</v>
+      </c>
+      <c r="E44">
+        <v>27</v>
+      </c>
+      <c r="F44" t="s">
         <v>13</v>
       </c>
-      <c r="C44">
+      <c r="G44">
+        <v>1.3</v>
+      </c>
+      <c r="H44">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="I44">
         <v>27</v>
-      </c>
-      <c r="D44">
-        <v>1.3</v>
-      </c>
-      <c r="E44">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="F44" t="s">
-        <v>11</v>
-      </c>
-      <c r="G44">
-        <v>27</v>
-      </c>
-      <c r="H44">
-        <v>1.5</v>
-      </c>
-      <c r="I44">
-        <v>2.8</v>
       </c>
       <c r="J44">
         <v>52.1</v>
@@ -2321,28 +2321,28 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
+        <v>10</v>
+      </c>
+      <c r="C45">
+        <v>0.03</v>
+      </c>
+      <c r="D45">
+        <v>0.2</v>
+      </c>
+      <c r="E45">
+        <v>35</v>
+      </c>
+      <c r="F45" t="s">
         <v>13</v>
       </c>
-      <c r="C45">
+      <c r="G45">
+        <v>0.4</v>
+      </c>
+      <c r="H45">
+        <v>0.9</v>
+      </c>
+      <c r="I45">
         <v>70</v>
-      </c>
-      <c r="D45">
-        <v>0.4</v>
-      </c>
-      <c r="E45">
-        <v>0.9</v>
-      </c>
-      <c r="F45" t="s">
-        <v>11</v>
-      </c>
-      <c r="G45">
-        <v>35</v>
-      </c>
-      <c r="H45">
-        <v>0.03</v>
-      </c>
-      <c r="I45">
-        <v>0.2</v>
       </c>
       <c r="J45">
         <v>43.1</v>
@@ -2353,28 +2353,28 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
+        <v>10</v>
+      </c>
+      <c r="C46">
+        <v>1.2</v>
+      </c>
+      <c r="D46">
+        <v>1.7</v>
+      </c>
+      <c r="E46">
+        <v>76</v>
+      </c>
+      <c r="F46" t="s">
         <v>13</v>
       </c>
-      <c r="C46">
+      <c r="G46">
+        <v>1.4</v>
+      </c>
+      <c r="H46">
+        <v>1.7</v>
+      </c>
+      <c r="I46">
         <v>75</v>
-      </c>
-      <c r="D46">
-        <v>1.4</v>
-      </c>
-      <c r="E46">
-        <v>1.7</v>
-      </c>
-      <c r="F46" t="s">
-        <v>11</v>
-      </c>
-      <c r="G46">
-        <v>76</v>
-      </c>
-      <c r="H46">
-        <v>1.2</v>
-      </c>
-      <c r="I46">
-        <v>1.7</v>
       </c>
       <c r="J46">
         <v>62.9</v>
